--- a/Excel-XLSX/UN-TAN.xlsx
+++ b/Excel-XLSX/UN-TAN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="900">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>41aS4a</t>
+    <t>U41YiZ</t>
   </si>
   <si>
     <t>1961</t>
@@ -2631,33 +2631,42 @@
     <t>415</t>
   </si>
   <si>
-    <t>139841</t>
-  </si>
-  <si>
-    <t>6643</t>
-  </si>
-  <si>
-    <t>7782</t>
-  </si>
-  <si>
-    <t>2101</t>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>ARE</t>
+  </si>
+  <si>
+    <t>EGY</t>
   </si>
   <si>
     <t>416</t>
   </si>
   <si>
-    <t>42797</t>
-  </si>
-  <si>
-    <t>34201</t>
-  </si>
-  <si>
-    <t>10417</t>
+    <t>136494</t>
+  </si>
+  <si>
+    <t>6001</t>
+  </si>
+  <si>
+    <t>13852</t>
   </si>
   <si>
     <t>417</t>
   </si>
   <si>
+    <t>40064</t>
+  </si>
+  <si>
+    <t>34971</t>
+  </si>
+  <si>
+    <t>10511</t>
+  </si>
+  <si>
+    <t>418</t>
+  </si>
+  <si>
     <t>Eritrea</t>
   </si>
   <si>
@@ -2667,9 +2676,6 @@
     <t>ERI</t>
   </si>
   <si>
-    <t>418</t>
-  </si>
-  <si>
     <t>419</t>
   </si>
   <si>
@@ -2700,13 +2706,16 @@
     <t>428</t>
   </si>
   <si>
+    <t>429</t>
+  </si>
+  <si>
     <t>Ukraine</t>
   </si>
   <si>
     <t>UKR</t>
   </si>
   <si>
-    <t>429</t>
+    <t>430</t>
   </si>
 </sst>
 </file>
@@ -3091,7 +3100,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V430"/>
+  <dimension ref="A1:V431"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -31295,7 +31304,7 @@
         <v>33</v>
       </c>
       <c r="O415" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="P415" s="2" t="s">
         <v>33</v>
@@ -31336,16 +31345,16 @@
         <v>867</v>
       </c>
       <c r="F416" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="G416" s="1" t="s">
-        <v>135</v>
+        <v>871</v>
       </c>
       <c r="H416" s="1" t="s">
-        <v>136</v>
+        <v>872</v>
       </c>
       <c r="I416" s="1" t="s">
-        <v>136</v>
+        <v>873</v>
       </c>
       <c r="J416" s="2" t="s">
         <v>28</v>
@@ -31360,13 +31369,13 @@
         <v>31</v>
       </c>
       <c r="N416" s="2" t="s">
-        <v>871</v>
+        <v>33</v>
       </c>
       <c r="O416" s="2" t="s">
-        <v>872</v>
+        <v>50</v>
       </c>
       <c r="P416" s="2" t="s">
-        <v>873</v>
+        <v>33</v>
       </c>
       <c r="Q416" s="2" t="s">
         <v>33</v>
@@ -31378,7 +31387,7 @@
         <v>33</v>
       </c>
       <c r="T416" s="2" t="s">
-        <v>874</v>
+        <v>33</v>
       </c>
       <c r="U416" s="1" t="s">
         <v>34</v>
@@ -31398,22 +31407,22 @@
         <v>22</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E417" s="2" t="s">
         <v>867</v>
       </c>
       <c r="F417" s="2" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="G417" s="1" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="H417" s="1" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="I417" s="1" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="J417" s="2" t="s">
         <v>28</v>
@@ -31428,14 +31437,14 @@
         <v>31</v>
       </c>
       <c r="N417" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="O417" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="O417" s="2" t="s">
+      <c r="P417" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="P417" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="Q417" s="2" t="s">
         <v>33</v>
       </c>
@@ -31446,7 +31455,7 @@
         <v>33</v>
       </c>
       <c r="T417" s="2" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
       <c r="U417" s="1" t="s">
         <v>34</v>
@@ -31466,55 +31475,55 @@
         <v>22</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E418" s="2" t="s">
         <v>867</v>
       </c>
       <c r="F418" s="2" t="s">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="G418" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H418" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I418" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J418" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K418" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L418" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M418" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N418" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="O418" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="H418" s="1" t="s">
+      <c r="P418" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q418" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R418" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S418" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T418" s="2" t="s">
         <v>881</v>
-      </c>
-      <c r="I418" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="J418" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K418" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L418" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M418" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N418" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O418" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P418" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q418" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R418" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S418" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T418" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="U418" s="1" t="s">
         <v>34</v>
@@ -31534,22 +31543,22 @@
         <v>22</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E419" s="2" t="s">
         <v>867</v>
       </c>
       <c r="F419" s="2" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="G419" s="1" t="s">
-        <v>792</v>
+        <v>883</v>
       </c>
       <c r="H419" s="1" t="s">
-        <v>793</v>
+        <v>884</v>
       </c>
       <c r="I419" s="1" t="s">
-        <v>793</v>
+        <v>885</v>
       </c>
       <c r="J419" s="2" t="s">
         <v>28</v>
@@ -31564,10 +31573,10 @@
         <v>31</v>
       </c>
       <c r="N419" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O419" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="O419" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="P419" s="2" t="s">
         <v>33</v>
@@ -31602,22 +31611,22 @@
         <v>22</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="E420" s="2" t="s">
         <v>867</v>
       </c>
       <c r="F420" s="2" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="G420" s="1" t="s">
-        <v>502</v>
+        <v>792</v>
       </c>
       <c r="H420" s="1" t="s">
-        <v>503</v>
+        <v>793</v>
       </c>
       <c r="I420" s="1" t="s">
-        <v>503</v>
+        <v>793</v>
       </c>
       <c r="J420" s="2" t="s">
         <v>28</v>
@@ -31632,10 +31641,10 @@
         <v>31</v>
       </c>
       <c r="N420" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="O420" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="P420" s="2" t="s">
         <v>33</v>
@@ -31670,22 +31679,22 @@
         <v>22</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="E421" s="2" t="s">
         <v>867</v>
       </c>
       <c r="F421" s="2" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="G421" s="1" t="s">
-        <v>692</v>
+        <v>502</v>
       </c>
       <c r="H421" s="1" t="s">
-        <v>693</v>
+        <v>503</v>
       </c>
       <c r="I421" s="1" t="s">
-        <v>694</v>
+        <v>503</v>
       </c>
       <c r="J421" s="2" t="s">
         <v>28</v>
@@ -31700,10 +31709,10 @@
         <v>31</v>
       </c>
       <c r="N421" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="O421" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="P421" s="2" t="s">
         <v>33</v>
@@ -31738,22 +31747,22 @@
         <v>22</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="E422" s="2" t="s">
         <v>867</v>
       </c>
       <c r="F422" s="2" t="s">
-        <v>25</v>
+        <v>268</v>
       </c>
       <c r="G422" s="1" t="s">
-        <v>26</v>
+        <v>692</v>
       </c>
       <c r="H422" s="1" t="s">
-        <v>27</v>
+        <v>693</v>
       </c>
       <c r="I422" s="1" t="s">
-        <v>27</v>
+        <v>694</v>
       </c>
       <c r="J422" s="2" t="s">
         <v>28</v>
@@ -31768,10 +31777,10 @@
         <v>31</v>
       </c>
       <c r="N422" s="2" t="s">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="O422" s="2" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="P422" s="2" t="s">
         <v>33</v>
@@ -31786,7 +31795,7 @@
         <v>33</v>
       </c>
       <c r="T422" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="U422" s="1" t="s">
         <v>34</v>
@@ -31806,22 +31815,22 @@
         <v>22</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="E423" s="2" t="s">
         <v>867</v>
       </c>
       <c r="F423" s="2" t="s">
-        <v>379</v>
+        <v>25</v>
       </c>
       <c r="G423" s="1" t="s">
-        <v>380</v>
+        <v>26</v>
       </c>
       <c r="H423" s="1" t="s">
-        <v>381</v>
+        <v>27</v>
       </c>
       <c r="I423" s="1" t="s">
-        <v>381</v>
+        <v>27</v>
       </c>
       <c r="J423" s="2" t="s">
         <v>28</v>
@@ -31836,25 +31845,25 @@
         <v>31</v>
       </c>
       <c r="N423" s="2" t="s">
-        <v>343</v>
+        <v>212</v>
       </c>
       <c r="O423" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P423" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q423" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R423" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S423" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T423" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="P423" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q423" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R423" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S423" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T423" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="U423" s="1" t="s">
         <v>34</v>
@@ -31874,22 +31883,22 @@
         <v>22</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="E424" s="2" t="s">
         <v>867</v>
       </c>
       <c r="F424" s="2" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="G424" s="1" t="s">
-        <v>511</v>
+        <v>380</v>
       </c>
       <c r="H424" s="1" t="s">
-        <v>512</v>
+        <v>381</v>
       </c>
       <c r="I424" s="1" t="s">
-        <v>513</v>
+        <v>381</v>
       </c>
       <c r="J424" s="2" t="s">
         <v>28</v>
@@ -31904,10 +31913,10 @@
         <v>31</v>
       </c>
       <c r="N424" s="2" t="s">
-        <v>33</v>
+        <v>343</v>
       </c>
       <c r="O424" s="2" t="s">
-        <v>216</v>
+        <v>33</v>
       </c>
       <c r="P424" s="2" t="s">
         <v>33</v>
@@ -31942,22 +31951,22 @@
         <v>22</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="E425" s="2" t="s">
         <v>867</v>
       </c>
       <c r="F425" s="2" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="G425" s="1" t="s">
-        <v>700</v>
+        <v>511</v>
       </c>
       <c r="H425" s="1" t="s">
-        <v>701</v>
+        <v>512</v>
       </c>
       <c r="I425" s="1" t="s">
-        <v>701</v>
+        <v>513</v>
       </c>
       <c r="J425" s="2" t="s">
         <v>28</v>
@@ -31972,10 +31981,10 @@
         <v>31</v>
       </c>
       <c r="N425" s="2" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="O425" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="P425" s="2" t="s">
         <v>33</v>
@@ -32010,22 +32019,22 @@
         <v>22</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="E426" s="2" t="s">
         <v>867</v>
       </c>
       <c r="F426" s="2" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="G426" s="1" t="s">
-        <v>775</v>
+        <v>700</v>
       </c>
       <c r="H426" s="1" t="s">
-        <v>776</v>
+        <v>701</v>
       </c>
       <c r="I426" s="1" t="s">
-        <v>776</v>
+        <v>701</v>
       </c>
       <c r="J426" s="2" t="s">
         <v>28</v>
@@ -32040,10 +32049,10 @@
         <v>31</v>
       </c>
       <c r="N426" s="2" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="O426" s="2" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="P426" s="2" t="s">
         <v>33</v>
@@ -32078,22 +32087,22 @@
         <v>22</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="E427" s="2" t="s">
         <v>867</v>
       </c>
       <c r="F427" s="2" t="s">
-        <v>166</v>
+        <v>442</v>
       </c>
       <c r="G427" s="1" t="s">
-        <v>167</v>
+        <v>775</v>
       </c>
       <c r="H427" s="1" t="s">
-        <v>168</v>
+        <v>776</v>
       </c>
       <c r="I427" s="1" t="s">
-        <v>168</v>
+        <v>776</v>
       </c>
       <c r="J427" s="2" t="s">
         <v>28</v>
@@ -32108,7 +32117,7 @@
         <v>31</v>
       </c>
       <c r="N427" s="2" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="O427" s="2" t="s">
         <v>45</v>
@@ -32146,22 +32155,22 @@
         <v>22</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="E428" s="2" t="s">
         <v>867</v>
       </c>
       <c r="F428" s="2" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="G428" s="1" t="s">
-        <v>61</v>
+        <v>167</v>
       </c>
       <c r="H428" s="1" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="I428" s="1" t="s">
-        <v>63</v>
+        <v>168</v>
       </c>
       <c r="J428" s="2" t="s">
         <v>28</v>
@@ -32176,10 +32185,10 @@
         <v>31</v>
       </c>
       <c r="N428" s="2" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="O428" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="P428" s="2" t="s">
         <v>33</v>
@@ -32194,7 +32203,7 @@
         <v>33</v>
       </c>
       <c r="T428" s="2" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="U428" s="1" t="s">
         <v>34</v>
@@ -32214,22 +32223,22 @@
         <v>22</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="E429" s="2" t="s">
         <v>867</v>
       </c>
       <c r="F429" s="2" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="G429" s="1" t="s">
-        <v>894</v>
+        <v>61</v>
       </c>
       <c r="H429" s="1" t="s">
-        <v>895</v>
+        <v>62</v>
       </c>
       <c r="I429" s="1" t="s">
-        <v>895</v>
+        <v>63</v>
       </c>
       <c r="J429" s="2" t="s">
         <v>28</v>
@@ -32244,10 +32253,10 @@
         <v>31</v>
       </c>
       <c r="N429" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O429" s="2" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="P429" s="2" t="s">
         <v>33</v>
@@ -32262,7 +32271,7 @@
         <v>33</v>
       </c>
       <c r="T429" s="2" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="U429" s="1" t="s">
         <v>34</v>
@@ -32288,54 +32297,122 @@
         <v>867</v>
       </c>
       <c r="F430" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G430" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="H430" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="I430" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="J430" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K430" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L430" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M430" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N430" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O430" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P430" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q430" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R430" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S430" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T430" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U430" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V430" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D431" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="E431" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="F431" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="G430" s="1" t="s">
+      <c r="G431" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="H430" s="1" t="s">
+      <c r="H431" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="I430" s="1" t="s">
+      <c r="I431" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="J430" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K430" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L430" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M430" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N430" s="2" t="s">
+      <c r="J431" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K431" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L431" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M431" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N431" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O430" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="P430" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q430" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R430" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S430" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T430" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U430" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V430" s="2" t="s">
+      <c r="O431" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="P431" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q431" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R431" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S431" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T431" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U431" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V431" s="2" t="s">
         <v>33</v>
       </c>
     </row>
